--- a/data/trans_orig/IP16A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8FF874C-4099-4586-A024-AA1C6DACB98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F1D920-26A2-4BAB-ACE1-54BFBD40CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFEF3503-F049-4926-905D-FC035D6B6098}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA7D2F80-761F-4787-B120-364253EE1FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -104,55 +104,55 @@
     <t>46,1%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
   </si>
   <si>
     <t>40,14%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
   </si>
   <si>
     <t>53,9%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>59,86%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,55 +161,55 @@
     <t>36,46%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
   </si>
   <si>
     <t>32,65%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>34,64%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>67,35%</t>
   </si>
   <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
   </si>
   <si>
     <t>65,36%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -218,103 +218,109 @@
     <t>49,09%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>42,57%</t>
   </si>
   <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
   </si>
   <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>47,65%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>52,35%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -326,19 +332,19 @@
     <t>38,39%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
   </si>
   <si>
     <t>38,36%</t>
@@ -347,31 +353,31 @@
     <t>28,03%</t>
   </si>
   <si>
-    <t>49,6%</t>
+    <t>50,66%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>50,4%</t>
+    <t>49,34%</t>
   </si>
   <si>
     <t>71,97%</t>
@@ -380,589 +386,583 @@
     <t>41,96%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>44,55%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>43,21%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
   </si>
   <si>
     <t>58,04%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
   </si>
   <si>
     <t>55,45%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>56,79%</t>
   </si>
   <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
   </si>
   <si>
     <t>37,36%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>62,64%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>62,25%</t>
   </si>
   <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>46,3%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
+    <t>53,25%</t>
   </si>
   <si>
     <t>45,13%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>53,7%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>46,75%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40B9E87-AFBA-4D89-BD95-6A2B5B82A937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C9E8AB-0738-4122-99E6-19677E731582}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2115,10 +2115,10 @@
         <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -2127,13 +2127,13 @@
         <v>41295</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -2142,13 +2142,13 @@
         <v>100638</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>84576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>128</v>
@@ -2178,13 +2178,13 @@
         <v>84010</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>254</v>
@@ -2193,13 +2193,13 @@
         <v>168586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2255,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8C3C26-EB1B-46AD-B35F-EC3B68CB9DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DEF019-1C74-4F40-BA7D-959B3BA7E8A8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2292,7 +2292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2536,13 +2536,13 @@
         <v>8772</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2551,13 +2551,13 @@
         <v>9786</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -2566,13 +2566,13 @@
         <v>18558</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2587,13 @@
         <v>14080</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -2602,13 +2602,13 @@
         <v>15737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2617,13 +2617,13 @@
         <v>29817</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2691,13 @@
         <v>52294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -2706,13 +2706,13 @@
         <v>51793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -2721,13 +2721,13 @@
         <v>104087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2742,13 @@
         <v>72331</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -2757,13 +2757,13 @@
         <v>64462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>198</v>
@@ -2772,13 +2772,13 @@
         <v>136793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2846,13 @@
         <v>14132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2861,13 +2861,13 @@
         <v>17132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -2876,13 +2876,13 @@
         <v>31264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2897,13 @@
         <v>31100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -2912,13 +2912,13 @@
         <v>28727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -2927,13 +2927,13 @@
         <v>59827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3001,13 @@
         <v>75199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -3016,13 +3016,13 @@
         <v>78711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -3031,13 +3031,13 @@
         <v>153910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3052,13 @@
         <v>117511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -3067,13 +3067,13 @@
         <v>108926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>324</v>
@@ -3082,13 +3082,13 @@
         <v>226437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3164,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F13A7BC-8FA6-4267-808C-464804F4ABFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD742145-F210-4479-81E9-A643F793108F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3181,7 +3181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3425,13 +3425,13 @@
         <v>5565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3440,13 +3440,13 @@
         <v>6705</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3455,13 +3455,13 @@
         <v>12270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3476,13 @@
         <v>7210</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -3491,13 +3491,13 @@
         <v>12151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -3506,13 +3506,13 @@
         <v>19360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3580,13 @@
         <v>32587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -3595,13 +3595,13 @@
         <v>39674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -3610,13 +3610,13 @@
         <v>72261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3631,13 @@
         <v>64365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -3646,13 +3646,13 @@
         <v>66236</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>194</v>
@@ -3661,13 +3661,13 @@
         <v>130601</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3735,13 @@
         <v>16000</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3750,13 +3750,13 @@
         <v>16793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -3765,13 +3765,13 @@
         <v>32794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3786,13 @@
         <v>21659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3801,13 +3801,13 @@
         <v>21701</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -3816,13 +3816,13 @@
         <v>43359</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3890,13 @@
         <v>54153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -3905,13 +3905,13 @@
         <v>63172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>177</v>
@@ -3920,13 +3920,13 @@
         <v>117324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3941,13 @@
         <v>93232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>149</v>
@@ -3956,13 +3956,13 @@
         <v>100087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -3971,13 +3971,13 @@
         <v>193321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,7 +4033,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +4053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F4F66F-0FEA-436D-9868-416B68880C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A05B35-EF34-40F1-8BB5-B3A428F9C719}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4070,7 +4070,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4314,13 +4314,13 @@
         <v>6792</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4329,13 +4329,13 @@
         <v>3903</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -4344,13 +4344,13 @@
         <v>10695</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4365,13 @@
         <v>7574</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -4380,13 +4380,13 @@
         <v>7913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4395,13 +4395,13 @@
         <v>15487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4469,13 @@
         <v>46543</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -4484,13 +4484,13 @@
         <v>46812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -4499,13 +4499,13 @@
         <v>93355</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4520,13 @@
         <v>67874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -4535,13 +4535,13 @@
         <v>54429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>166</v>
@@ -4550,13 +4550,13 @@
         <v>122303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4624,13 @@
         <v>22725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4639,13 +4639,13 @@
         <v>20773</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -4654,13 +4654,13 @@
         <v>43498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4675,13 @@
         <v>21029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -4690,13 +4690,13 @@
         <v>20582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -4705,13 +4705,13 @@
         <v>41611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4779,13 @@
         <v>76061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -4794,13 +4794,13 @@
         <v>71487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -4809,13 +4809,13 @@
         <v>147547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4830,13 @@
         <v>96476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4845,13 +4845,13 @@
         <v>82925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F1D920-26A2-4BAB-ACE1-54BFBD40CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D27FE8-17E1-43E0-9635-3BE3323E4204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA7D2F80-761F-4787-B120-364253EE1FFE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A16469B0-3160-4598-816F-C0F114A4BF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,259 +68,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>34,64%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
   </si>
   <si>
     <t>65,36%</t>
   </si>
   <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
   </si>
   <si>
     <t>42,57%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -329,640 +308,640 @@
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
   </si>
   <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>43,21%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>58,04%</t>
   </si>
   <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>56,79%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>20,7%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
   </si>
   <si>
     <t>45,46%</t>
   </si>
   <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
+    <t>79,64%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
   </si>
   <si>
     <t>42,49%</t>
   </si>
   <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>43,06%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>57,51%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
   </si>
   <si>
     <t>56,94%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
   </si>
   <si>
     <t>37,77%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
   </si>
   <si>
     <t>63,26%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C9E8AB-0738-4122-99E6-19677E731582}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43976889-4846-45B8-AF69-DB156289811F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1492,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>7644</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1507,81 +1486,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9338</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>16981</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>14404</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>10920</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>25324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,151 +1573,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>9338</v>
+        <v>26353</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>7644</v>
+        <v>31968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>16981</v>
+        <v>58320</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>10920</v>
+        <v>54354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>14404</v>
+        <v>55701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="N8" s="7">
-        <v>25324</v>
+        <v>110056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,153 +1728,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>31968</v>
+        <v>7299</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>26353</v>
+        <v>17311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>58320</v>
+        <v>24610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>55701</v>
+        <v>15252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
+        <v>26</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17955</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="7">
         <v>50</v>
       </c>
-      <c r="H11" s="7">
-        <v>82</v>
-      </c>
-      <c r="I11" s="7">
-        <v>54354</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="7">
-        <v>166</v>
-      </c>
       <c r="N11" s="7">
-        <v>110056</v>
+        <v>33206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,153 +1883,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>17311</v>
+        <v>41295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>7299</v>
+        <v>58617</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="N13" s="7">
-        <v>24610</v>
+        <v>99912</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D14" s="7">
-        <v>17955</v>
+        <v>84010</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="I14" s="7">
-        <v>15252</v>
+        <v>84576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="N14" s="7">
-        <v>33206</v>
+        <v>168586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,216 +2038,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
+        <v>404</v>
+      </c>
+      <c r="N15" s="7">
+        <v>268498</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="N15" s="7">
-        <v>57816</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>89</v>
-      </c>
-      <c r="D16" s="7">
-        <v>59343</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>62</v>
-      </c>
-      <c r="I16" s="7">
-        <v>41295</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>151</v>
-      </c>
-      <c r="N16" s="7">
-        <v>100638</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>126</v>
-      </c>
-      <c r="D17" s="7">
-        <v>84576</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="7">
-        <v>128</v>
-      </c>
-      <c r="I17" s="7">
-        <v>84010</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>254</v>
-      </c>
-      <c r="N17" s="7">
-        <v>168586</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2275,8 +2104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DEF019-1C74-4F40-BA7D-959B3BA7E8A8}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999051-AE6D-487C-876D-8B27F6645C73}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2292,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2393,88 +2222,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9786</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8772</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N4" s="7">
+        <v>18558</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15737</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I5" s="7">
+        <v>14080</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="N5" s="7">
+        <v>29817</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,147 +2324,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25523</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22852</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="N6" s="7">
+        <v>48375</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>8772</v>
+        <v>51793</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>9786</v>
+        <v>52294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="N7" s="7">
-        <v>18558</v>
+        <v>104087</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7">
-        <v>14080</v>
+        <v>64462</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I8" s="7">
-        <v>15737</v>
+        <v>72331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="N8" s="7">
-        <v>29817</v>
+        <v>136793</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,153 +2479,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="D9" s="7">
-        <v>22852</v>
+        <v>116255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="I9" s="7">
-        <v>25523</v>
+        <v>124625</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>69</v>
+        <v>347</v>
       </c>
       <c r="N9" s="7">
-        <v>48375</v>
+        <v>240880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>52294</v>
+        <v>17132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>51793</v>
+        <v>14132</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>104087</v>
+        <v>31264</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>72331</v>
+        <v>28727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>64462</v>
+        <v>31100</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>136793</v>
+        <v>59827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,153 +2634,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7">
-        <v>124625</v>
+        <v>45859</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>116255</v>
+        <v>45232</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>347</v>
+        <v>127</v>
       </c>
       <c r="N12" s="7">
-        <v>240880</v>
+        <v>91091</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D13" s="7">
-        <v>14132</v>
+        <v>78711</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I13" s="7">
-        <v>17132</v>
+        <v>75199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="N13" s="7">
-        <v>31264</v>
+        <v>153910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D14" s="7">
-        <v>31100</v>
+        <v>108926</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="I14" s="7">
-        <v>28727</v>
+        <v>117511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>84</v>
+        <v>324</v>
       </c>
       <c r="N14" s="7">
-        <v>59827</v>
+        <v>226437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,216 +2789,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="D15" s="7">
-        <v>45232</v>
+        <v>187637</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="I15" s="7">
-        <v>45859</v>
+        <v>192710</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>127</v>
+        <v>543</v>
       </c>
       <c r="N15" s="7">
-        <v>91091</v>
+        <v>380347</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>107</v>
-      </c>
-      <c r="D16" s="7">
-        <v>75199</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>112</v>
-      </c>
-      <c r="I16" s="7">
-        <v>78711</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>219</v>
-      </c>
-      <c r="N16" s="7">
-        <v>153910</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>166</v>
-      </c>
-      <c r="D17" s="7">
-        <v>117511</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>158</v>
-      </c>
-      <c r="I17" s="7">
-        <v>108926</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>324</v>
-      </c>
-      <c r="N17" s="7">
-        <v>226437</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>273</v>
-      </c>
-      <c r="D18" s="7">
-        <v>192710</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>270</v>
-      </c>
-      <c r="I18" s="7">
-        <v>187637</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>543</v>
-      </c>
-      <c r="N18" s="7">
-        <v>380347</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3164,8 +2855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD742145-F210-4479-81E9-A643F793108F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E568C24-572B-4C5A-B1F3-7B4CEC646D78}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3181,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3282,88 +2973,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6705</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5565</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12270</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12151</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7210</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N5" s="7">
+        <v>19360</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,147 +3075,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18856</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12775</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N6" s="7">
+        <v>31630</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>5565</v>
+        <v>39674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>6705</v>
+        <v>32587</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>12270</v>
+        <v>72261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7">
-        <v>7210</v>
+        <v>66236</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>12151</v>
+        <v>64365</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="N8" s="7">
-        <v>19360</v>
+        <v>130601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,153 +3230,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D9" s="7">
-        <v>12775</v>
+        <v>105910</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I9" s="7">
-        <v>18856</v>
+        <v>96952</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="N9" s="7">
-        <v>31630</v>
+        <v>202862</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16793</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16000</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" s="7">
         <v>49</v>
       </c>
-      <c r="D10" s="7">
-        <v>32587</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="7">
-        <v>61</v>
-      </c>
-      <c r="I10" s="7">
-        <v>39674</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M10" s="7">
-        <v>110</v>
-      </c>
       <c r="N10" s="7">
-        <v>72261</v>
+        <v>32794</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>64365</v>
+        <v>21701</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>66236</v>
+        <v>21659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="N11" s="7">
-        <v>130601</v>
+        <v>43359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,153 +3385,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>96952</v>
+        <v>38494</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>105910</v>
+        <v>37659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="N12" s="7">
-        <v>202862</v>
+        <v>76153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7">
-        <v>16000</v>
+        <v>63172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>16793</v>
+        <v>54153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="N13" s="7">
-        <v>32794</v>
+        <v>117324</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D14" s="7">
-        <v>21659</v>
+        <v>100087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="I14" s="7">
-        <v>21701</v>
+        <v>93232</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="N14" s="7">
-        <v>43359</v>
+        <v>193321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,216 +3540,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="D15" s="7">
-        <v>37659</v>
+        <v>163259</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>38494</v>
+        <v>147385</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>111</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>76153</v>
+        <v>310645</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>80</v>
-      </c>
-      <c r="D16" s="7">
-        <v>54153</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" s="7">
-        <v>97</v>
-      </c>
-      <c r="I16" s="7">
-        <v>63172</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M16" s="7">
-        <v>177</v>
-      </c>
-      <c r="N16" s="7">
-        <v>117324</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>134</v>
-      </c>
-      <c r="D17" s="7">
-        <v>93232</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="7">
-        <v>149</v>
-      </c>
-      <c r="I17" s="7">
-        <v>100087</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M17" s="7">
-        <v>283</v>
-      </c>
-      <c r="N17" s="7">
-        <v>193321</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>214</v>
-      </c>
-      <c r="D18" s="7">
-        <v>147385</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>246</v>
-      </c>
-      <c r="I18" s="7">
-        <v>163259</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>460</v>
-      </c>
-      <c r="N18" s="7">
-        <v>310645</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4053,8 +3606,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A05B35-EF34-40F1-8BB5-B3A428F9C719}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BBFC84-0989-4CE9-BBD5-72E2281C05EE}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4070,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4171,88 +3724,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3893</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6975</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10868</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11337</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8692</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N5" s="7">
+        <v>20029</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,147 +3826,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15667</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30897</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>6792</v>
+        <v>46876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="I7" s="7">
-        <v>3903</v>
+        <v>48536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>10695</v>
+        <v>95412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>7574</v>
+        <v>73967</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="I8" s="7">
-        <v>7913</v>
+        <v>71488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="N8" s="7">
-        <v>15487</v>
+        <v>145455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,153 +3981,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>26182</v>
+        <v>240867</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>46543</v>
+        <v>20748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>46812</v>
+        <v>24586</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>93355</v>
+        <v>45334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>67874</v>
+        <v>20894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>54429</v>
+        <v>21925</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>122303</v>
+        <v>42819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,153 +4136,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>114417</v>
+        <v>41642</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N12" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>22725</v>
+        <v>71517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I13" s="7">
-        <v>20773</v>
+        <v>80096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="N13" s="7">
-        <v>43498</v>
+        <v>151613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7">
-        <v>21029</v>
+        <v>106198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="I14" s="7">
-        <v>20582</v>
+        <v>102105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="N14" s="7">
-        <v>41611</v>
+        <v>208303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,216 +4291,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I15" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>115</v>
-      </c>
-      <c r="D16" s="7">
-        <v>76061</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H16" s="7">
-        <v>114</v>
-      </c>
-      <c r="I16" s="7">
-        <v>71487</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M16" s="7">
-        <v>229</v>
-      </c>
-      <c r="N16" s="7">
-        <v>147547</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>135</v>
-      </c>
-      <c r="D17" s="7">
-        <v>96476</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H17" s="7">
-        <v>112</v>
-      </c>
-      <c r="I17" s="7">
-        <v>82925</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M17" s="7">
-        <v>247</v>
-      </c>
-      <c r="N17" s="7">
-        <v>179401</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
-      <c r="I18" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>476</v>
-      </c>
-      <c r="N18" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
